--- a/Homework4/pdf/hw4.xlsx
+++ b/Homework4/pdf/hw4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianma\Development\cs311\Homework4\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,17 +16,6 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,8 +497,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -603,13 +593,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Matrix</a:t>
+              <a:t>Both</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Multiplication</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -665,7 +650,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>mat_mult!$A$2:$A$100</c:f>
+              <c:f>mat_mult!$A$1:$A$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
@@ -971,12 +956,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mat_mult!$B$2:$B$100</c:f>
+              <c:f>mat_mult!$B$1:$B$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -985,28 +970,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
@@ -1018,10 +1003,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3</c:v>
@@ -1036,241 +1021,241 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>19</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>24</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>24</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="40">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>47</c:v>
-                </c:pt>
                 <c:pt idx="45">
-                  <c:v>49</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>53</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>54</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>57</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>62</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>72</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>68</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>72</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>76</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>77</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>84</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>86</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>91</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>109</c:v>
-                </c:pt>
                 <c:pt idx="62">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>118</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="71">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>149</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="72">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="76">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>215</c:v>
-                </c:pt>
                 <c:pt idx="78">
-                  <c:v>222</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>236</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>236</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>247</c:v>
                 </c:pt>
-                <c:pt idx="82">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>275</c:v>
-                </c:pt>
                 <c:pt idx="85">
-                  <c:v>282</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>297</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>312</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>312</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>353</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>341</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>371</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>364</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>374</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>397</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>412</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>434</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>444</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>454</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,11 +1263,646 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-61A8-4D7F-90EE-10E7390E005F}"/>
+              <c16:uniqueId val="{00000000-0296-448A-AFC3-55D0357B307C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mat_mult!$A$1:$A$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mat_mult!$C$1:$C$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0296-448A-AFC3-55D0357B307C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1291,11 +1911,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="655175920"/>
-        <c:axId val="653536992"/>
+        <c:axId val="146490655"/>
+        <c:axId val="314742271"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="655175920"/>
+        <c:axId val="146490655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,13 +1942,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Matrix</a:t>
+                  <a:t>Matrix Size</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Size</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1398,7 +2013,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653536992"/>
+        <c:crossAx val="314742271"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1406,1000 +2021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="653536992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="655175920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Matrix Addition</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>mat_mult!$D$2:$D$100</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>mat_mult!$E$2:$E$100</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FEEF-4595-B39D-F7E3F7833731}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="491085472"/>
-        <c:axId val="530169872"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="491085472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Matrix</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Size</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="530169872"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="530169872"/>
+        <c:axId val="314742271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2505,7 +2127,1978 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491085472"/>
+        <c:crossAx val="146490655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Matrix Multiplication</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mat_mult!$A$1:$A$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mat_mult!$B$1:$B$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E57-47DD-8F0C-BE3165DEFBFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="144498463"/>
+        <c:axId val="135674975"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="144498463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135674975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135674975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144498463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Matrix Addition</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mat_mult!$A$1:$A$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mat_mult!$C$1:$C$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E2C-4D88-8EAF-4065829D3D9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="144139695"/>
+        <c:axId val="316600207"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="144139695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316600207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="316600207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144139695"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2634,6 +4227,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3666,27 +5299,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42EC9ED-23FD-4191-8660-8FA4A7EA90A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B8A2A6-5B2C-452D-8B15-63C296C1EC2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3706,23 +5855,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623ACD8F-3FF0-4F3A-8091-45CADAD3A21C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C005A8-4F39-4245-8CD4-5B7052DEC41B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3735,6 +5884,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FCD9D9D-0B6B-497F-96AA-E7D4EFB46840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4040,1412 +6225,1104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="E2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="B3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D5">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1">
+        <v>22</v>
+      </c>
+      <c r="C37" s="1">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1">
+        <v>26</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1">
+        <v>29</v>
+      </c>
+      <c r="C40" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1">
+        <v>29</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1">
+        <v>31</v>
+      </c>
+      <c r="C42" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1">
+        <v>34</v>
+      </c>
+      <c r="C43" s="1">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1">
+        <v>37</v>
+      </c>
+      <c r="C44" s="1">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1">
+        <v>38</v>
+      </c>
+      <c r="C45" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1">
+        <v>41</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1">
+        <v>48</v>
+      </c>
+      <c r="C48" s="1">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1">
+        <v>52</v>
+      </c>
+      <c r="C50" s="1">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1">
+        <v>55</v>
+      </c>
+      <c r="C51" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1">
+        <v>64</v>
+      </c>
+      <c r="C52" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>54</v>
+      </c>
+      <c r="B53" s="1">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1">
+        <v>64</v>
+      </c>
+      <c r="C54" s="1">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="D10">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1">
+        <v>66</v>
+      </c>
+      <c r="C55" s="1">
         <v>10</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>58</v>
+      </c>
+      <c r="B57" s="1">
+        <v>73</v>
+      </c>
+      <c r="C57" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>59</v>
+      </c>
+      <c r="B58" s="1">
+        <v>78</v>
+      </c>
+      <c r="C58" s="1">
         <v>11</v>
       </c>
-      <c r="B11">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>60</v>
+      </c>
+      <c r="B59" s="1">
+        <v>80</v>
+      </c>
+      <c r="C59" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>61</v>
+      </c>
+      <c r="B60" s="1">
+        <v>85</v>
+      </c>
+      <c r="C60" s="1">
         <v>11</v>
       </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>62</v>
+      </c>
+      <c r="B61" s="1">
+        <v>89</v>
+      </c>
+      <c r="C61" s="1">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="D12">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1">
+        <v>94</v>
+      </c>
+      <c r="C62" s="1">
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>64</v>
+      </c>
+      <c r="B63" s="1">
+        <v>102</v>
+      </c>
+      <c r="C63" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>65</v>
+      </c>
+      <c r="B64" s="1">
+        <v>103</v>
+      </c>
+      <c r="C64" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>66</v>
+      </c>
+      <c r="B65" s="1">
+        <v>107</v>
+      </c>
+      <c r="C65" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>67</v>
+      </c>
+      <c r="B66" s="1">
+        <v>113</v>
+      </c>
+      <c r="C66" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>68</v>
+      </c>
+      <c r="B67" s="1">
+        <v>118</v>
+      </c>
+      <c r="C67" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>69</v>
+      </c>
+      <c r="B68" s="1">
+        <v>121</v>
+      </c>
+      <c r="C68" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1">
+        <v>126</v>
+      </c>
+      <c r="C69" s="1">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="D15">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>71</v>
+      </c>
+      <c r="B70" s="1">
+        <v>135</v>
+      </c>
+      <c r="C70" s="1">
         <v>15</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>72</v>
+      </c>
+      <c r="B71" s="1">
+        <v>137</v>
+      </c>
+      <c r="C71" s="1">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="D16">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>73</v>
+      </c>
+      <c r="B72" s="1">
+        <v>145</v>
+      </c>
+      <c r="C72" s="1">
         <v>16</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>74</v>
+      </c>
+      <c r="B73" s="1">
+        <v>149</v>
+      </c>
+      <c r="C73" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>75</v>
+      </c>
+      <c r="B74" s="1">
+        <v>156</v>
+      </c>
+      <c r="C74" s="1">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>76</v>
+      </c>
+      <c r="B75" s="1">
+        <v>158</v>
+      </c>
+      <c r="C75" s="1">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="D18">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>77</v>
+      </c>
+      <c r="B76" s="1">
+        <v>169</v>
+      </c>
+      <c r="C76" s="1">
         <v>18</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1">
+        <v>173</v>
+      </c>
+      <c r="C77" s="1">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="D19">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>79</v>
+      </c>
+      <c r="B78" s="1">
+        <v>182</v>
+      </c>
+      <c r="C78" s="1">
         <v>19</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>80</v>
+      </c>
+      <c r="B79" s="1">
+        <v>194</v>
+      </c>
+      <c r="C79" s="1">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="D20">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>81</v>
+      </c>
+      <c r="B80" s="1">
+        <v>194</v>
+      </c>
+      <c r="C80" s="1">
         <v>20</v>
       </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>82</v>
+      </c>
+      <c r="B81" s="1">
+        <v>209</v>
+      </c>
+      <c r="C81" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>83</v>
+      </c>
+      <c r="B82" s="1">
+        <v>216</v>
+      </c>
+      <c r="C82" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>84</v>
+      </c>
+      <c r="B83" s="1">
+        <v>218</v>
+      </c>
+      <c r="C83" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>85</v>
+      </c>
+      <c r="B84" s="1">
+        <v>233</v>
+      </c>
+      <c r="C84" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>86</v>
+      </c>
+      <c r="B85" s="1">
+        <v>247</v>
+      </c>
+      <c r="C85" s="1">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="D23">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>87</v>
+      </c>
+      <c r="B86" s="1">
+        <v>249</v>
+      </c>
+      <c r="C86" s="1">
         <v>23</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>88</v>
+      </c>
+      <c r="B87" s="1">
+        <v>251</v>
+      </c>
+      <c r="C87" s="1">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>8</v>
-      </c>
-      <c r="D24">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>89</v>
+      </c>
+      <c r="B88" s="1">
+        <v>268</v>
+      </c>
+      <c r="C88" s="1">
         <v>24</v>
       </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>90</v>
+      </c>
+      <c r="B89" s="1">
+        <v>268</v>
+      </c>
+      <c r="C89" s="1">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="D25">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>91</v>
+      </c>
+      <c r="B90" s="1">
+        <v>289</v>
+      </c>
+      <c r="C90" s="1">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>26</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>92</v>
+      </c>
+      <c r="B91" s="1">
+        <v>300</v>
+      </c>
+      <c r="C91" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>93</v>
+      </c>
+      <c r="B92" s="1">
+        <v>329</v>
+      </c>
+      <c r="C92" s="1">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>27</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>94</v>
+      </c>
+      <c r="B93" s="1">
+        <v>321</v>
+      </c>
+      <c r="C93" s="1">
         <v>28</v>
       </c>
-      <c r="B28">
-        <v>11</v>
-      </c>
-      <c r="D28">
-        <v>28</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>95</v>
+      </c>
+      <c r="B94" s="1">
+        <v>331</v>
+      </c>
+      <c r="C94" s="1">
         <v>29</v>
       </c>
-      <c r="B29">
-        <v>14</v>
-      </c>
-      <c r="D29">
-        <v>29</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>96</v>
+      </c>
+      <c r="B95" s="1">
+        <v>343</v>
+      </c>
+      <c r="C95" s="1">
         <v>30</v>
       </c>
-      <c r="B30">
-        <v>14</v>
-      </c>
-      <c r="D30">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>97</v>
+      </c>
+      <c r="B96" s="1">
+        <v>361</v>
+      </c>
+      <c r="C96" s="1">
         <v>30</v>
       </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>98</v>
+      </c>
+      <c r="B97" s="1">
+        <v>369</v>
+      </c>
+      <c r="C97" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>99</v>
+      </c>
+      <c r="B98" s="1">
+        <v>391</v>
+      </c>
+      <c r="C98" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>100</v>
+      </c>
+      <c r="B99" s="1">
+        <v>398</v>
+      </c>
+      <c r="C99" s="1">
         <v>31</v>
-      </c>
-      <c r="B31">
-        <v>16</v>
-      </c>
-      <c r="D31">
-        <v>31</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>16</v>
-      </c>
-      <c r="D32">
-        <v>32</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>17</v>
-      </c>
-      <c r="D33">
-        <v>33</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>19</v>
-      </c>
-      <c r="D34">
-        <v>34</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>24</v>
-      </c>
-      <c r="D35">
-        <v>35</v>
-      </c>
-      <c r="E35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>23</v>
-      </c>
-      <c r="D36">
-        <v>36</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>24</v>
-      </c>
-      <c r="D37">
-        <v>37</v>
-      </c>
-      <c r="E37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>26</v>
-      </c>
-      <c r="D38">
-        <v>38</v>
-      </c>
-      <c r="E38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>29</v>
-      </c>
-      <c r="D39">
-        <v>39</v>
-      </c>
-      <c r="E39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>30</v>
-      </c>
-      <c r="D40">
-        <v>40</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>32</v>
-      </c>
-      <c r="D41">
-        <v>41</v>
-      </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>37</v>
-      </c>
-      <c r="D42">
-        <v>42</v>
-      </c>
-      <c r="E42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>38</v>
-      </c>
-      <c r="D43">
-        <v>43</v>
-      </c>
-      <c r="E43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>40</v>
-      </c>
-      <c r="D44">
-        <v>44</v>
-      </c>
-      <c r="E44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>46</v>
-      </c>
-      <c r="D45">
-        <v>45</v>
-      </c>
-      <c r="E45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>47</v>
-      </c>
-      <c r="D46">
-        <v>46</v>
-      </c>
-      <c r="E46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>49</v>
-      </c>
-      <c r="D47">
-        <v>47</v>
-      </c>
-      <c r="E47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>53</v>
-      </c>
-      <c r="D48">
-        <v>48</v>
-      </c>
-      <c r="E48">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>54</v>
-      </c>
-      <c r="D49">
-        <v>49</v>
-      </c>
-      <c r="E49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>57</v>
-      </c>
-      <c r="D50">
-        <v>50</v>
-      </c>
-      <c r="E50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>62</v>
-      </c>
-      <c r="D51">
-        <v>51</v>
-      </c>
-      <c r="E51">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>72</v>
-      </c>
-      <c r="D52">
-        <v>52</v>
-      </c>
-      <c r="E52">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>68</v>
-      </c>
-      <c r="D53">
-        <v>53</v>
-      </c>
-      <c r="E53">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>72</v>
-      </c>
-      <c r="D54">
-        <v>54</v>
-      </c>
-      <c r="E54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>76</v>
-      </c>
-      <c r="D55">
-        <v>55</v>
-      </c>
-      <c r="E55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>77</v>
-      </c>
-      <c r="D56">
-        <v>56</v>
-      </c>
-      <c r="E56">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>84</v>
-      </c>
-      <c r="D57">
-        <v>57</v>
-      </c>
-      <c r="E57">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>86</v>
-      </c>
-      <c r="D58">
-        <v>58</v>
-      </c>
-      <c r="E58">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>91</v>
-      </c>
-      <c r="D59">
-        <v>59</v>
-      </c>
-      <c r="E59">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>94</v>
-      </c>
-      <c r="D60">
-        <v>60</v>
-      </c>
-      <c r="E60">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>99</v>
-      </c>
-      <c r="D61">
-        <v>61</v>
-      </c>
-      <c r="E61">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>110</v>
-      </c>
-      <c r="D62">
-        <v>62</v>
-      </c>
-      <c r="E62">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>109</v>
-      </c>
-      <c r="D63">
-        <v>63</v>
-      </c>
-      <c r="E63">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>118</v>
-      </c>
-      <c r="D64">
-        <v>64</v>
-      </c>
-      <c r="E64">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>123</v>
-      </c>
-      <c r="D65">
-        <v>65</v>
-      </c>
-      <c r="E65">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>123</v>
-      </c>
-      <c r="D66">
-        <v>66</v>
-      </c>
-      <c r="E66">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>129</v>
-      </c>
-      <c r="D67">
-        <v>67</v>
-      </c>
-      <c r="E67">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>137</v>
-      </c>
-      <c r="D68">
-        <v>68</v>
-      </c>
-      <c r="E68">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>146</v>
-      </c>
-      <c r="D69">
-        <v>69</v>
-      </c>
-      <c r="E69">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>149</v>
-      </c>
-      <c r="D70">
-        <v>70</v>
-      </c>
-      <c r="E70">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <v>160</v>
-      </c>
-      <c r="D71">
-        <v>71</v>
-      </c>
-      <c r="E71">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>72</v>
-      </c>
-      <c r="B72">
-        <v>157</v>
-      </c>
-      <c r="D72">
-        <v>72</v>
-      </c>
-      <c r="E72">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>73</v>
-      </c>
-      <c r="B73">
-        <v>169</v>
-      </c>
-      <c r="D73">
-        <v>73</v>
-      </c>
-      <c r="E73">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>74</v>
-      </c>
-      <c r="B74">
-        <v>178</v>
-      </c>
-      <c r="D74">
-        <v>74</v>
-      </c>
-      <c r="E74">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <v>182</v>
-      </c>
-      <c r="D75">
-        <v>75</v>
-      </c>
-      <c r="E75">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>76</v>
-      </c>
-      <c r="B76">
-        <v>201</v>
-      </c>
-      <c r="D76">
-        <v>76</v>
-      </c>
-      <c r="E76">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>77</v>
-      </c>
-      <c r="B77">
-        <v>195</v>
-      </c>
-      <c r="D77">
-        <v>77</v>
-      </c>
-      <c r="E77">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>78</v>
-      </c>
-      <c r="B78">
-        <v>200</v>
-      </c>
-      <c r="D78">
-        <v>78</v>
-      </c>
-      <c r="E78">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>79</v>
-      </c>
-      <c r="B79">
-        <v>215</v>
-      </c>
-      <c r="D79">
-        <v>79</v>
-      </c>
-      <c r="E79">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>80</v>
-      </c>
-      <c r="B80">
-        <v>222</v>
-      </c>
-      <c r="D80">
-        <v>80</v>
-      </c>
-      <c r="E80">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>81</v>
-      </c>
-      <c r="B81">
-        <v>236</v>
-      </c>
-      <c r="D81">
-        <v>81</v>
-      </c>
-      <c r="E81">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>82</v>
-      </c>
-      <c r="B82">
-        <v>236</v>
-      </c>
-      <c r="D82">
-        <v>82</v>
-      </c>
-      <c r="E82">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>83</v>
-      </c>
-      <c r="B83">
-        <v>247</v>
-      </c>
-      <c r="D83">
-        <v>83</v>
-      </c>
-      <c r="E83">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>84</v>
-      </c>
-      <c r="B84">
-        <v>264</v>
-      </c>
-      <c r="D84">
-        <v>84</v>
-      </c>
-      <c r="E84">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>85</v>
-      </c>
-      <c r="B85">
-        <v>264</v>
-      </c>
-      <c r="D85">
-        <v>85</v>
-      </c>
-      <c r="E85">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>86</v>
-      </c>
-      <c r="B86">
-        <v>275</v>
-      </c>
-      <c r="D86">
-        <v>86</v>
-      </c>
-      <c r="E86">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>87</v>
-      </c>
-      <c r="B87">
-        <v>282</v>
-      </c>
-      <c r="D87">
-        <v>87</v>
-      </c>
-      <c r="E87">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>88</v>
-      </c>
-      <c r="B88">
-        <v>297</v>
-      </c>
-      <c r="D88">
-        <v>88</v>
-      </c>
-      <c r="E88">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>89</v>
-      </c>
-      <c r="B89">
-        <v>312</v>
-      </c>
-      <c r="D89">
-        <v>89</v>
-      </c>
-      <c r="E89">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <v>312</v>
-      </c>
-      <c r="D90">
-        <v>90</v>
-      </c>
-      <c r="E90">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>353</v>
-      </c>
-      <c r="D91">
-        <v>91</v>
-      </c>
-      <c r="E91">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>341</v>
-      </c>
-      <c r="D92">
-        <v>92</v>
-      </c>
-      <c r="E92">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>93</v>
-      </c>
-      <c r="B93">
-        <v>371</v>
-      </c>
-      <c r="D93">
-        <v>93</v>
-      </c>
-      <c r="E93">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>94</v>
-      </c>
-      <c r="B94">
-        <v>364</v>
-      </c>
-      <c r="D94">
-        <v>94</v>
-      </c>
-      <c r="E94">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>95</v>
-      </c>
-      <c r="B95">
-        <v>374</v>
-      </c>
-      <c r="D95">
-        <v>95</v>
-      </c>
-      <c r="E95">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>96</v>
-      </c>
-      <c r="B96">
-        <v>397</v>
-      </c>
-      <c r="D96">
-        <v>96</v>
-      </c>
-      <c r="E96">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>97</v>
-      </c>
-      <c r="B97">
-        <v>412</v>
-      </c>
-      <c r="D97">
-        <v>97</v>
-      </c>
-      <c r="E97">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>98</v>
-      </c>
-      <c r="B98">
-        <v>434</v>
-      </c>
-      <c r="D98">
-        <v>98</v>
-      </c>
-      <c r="E98">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>99</v>
-      </c>
-      <c r="B99">
-        <v>444</v>
-      </c>
-      <c r="D99">
-        <v>99</v>
-      </c>
-      <c r="E99">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>100</v>
-      </c>
-      <c r="B100">
-        <v>454</v>
-      </c>
-      <c r="D100">
-        <v>100</v>
-      </c>
-      <c r="E100">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
